--- a/src/main/resources/template/static/excel/模板-用户.xlsx
+++ b/src/main/resources/template/static/excel/模板-用户.xlsx
@@ -102,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -150,23 +150,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,6 +171,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -194,46 +194,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,13 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -273,13 +280,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,181 +321,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +535,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,15 +613,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -626,148 +626,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -1197,7 +1197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:14">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,12 +1242,15 @@
       <c r="H3" s="10"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I55:I1036 J55:J1036 K55:K1036 L55:L1036 M55:M1036 N55:N1036">
-      <formula1>"是,否"</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>"普通用户,管理员,公司用户"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I55:I1036 J55:J1036 K55:K1036 L55:L1036 M55:M1036 N55:N1036">
+      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/src/main/resources/template/static/excel/模板-用户.xlsx
+++ b/src/main/resources/template/static/excel/模板-用户.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$D$1:$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$D$1:$O$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>用户名</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>民族</t>
+  </si>
+  <si>
+    <t>政治面貌</t>
   </si>
   <si>
     <t>身份证号</t>
@@ -102,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -128,12 +131,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0451A5"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
@@ -141,6 +138,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF0451A5"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -158,6 +161,35 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,7 +204,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,14 +219,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,56 +272,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,40 +288,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,13 +318,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,163 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +523,17 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,25 +563,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,16 +587,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,10 +618,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -629,10 +632,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,137 +644,137 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,26 +796,29 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1133,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -1145,15 +1151,16 @@
     <col min="4" max="5" width="4.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
-    <col min="12" max="12" width="31.5" style="1" customWidth="1"/>
-    <col min="13" max="14" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="13" width="31.5" style="1" customWidth="1"/>
+    <col min="14" max="15" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1" spans="1:14">
+    <row r="1" ht="15.95" customHeight="1" spans="1:15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1175,86 +1182,93 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>123456</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="13" t="s">
         <v>24</v>
       </c>
       <c r="N2" t="s">
         <v>25</v>
       </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="8:8">
-      <c r="H3" s="10"/>
+    <row r="3" ht="15" customHeight="1" spans="9:9">
+      <c r="I3" s="14"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"普通用户,管理员,公司用户"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I55:I1036 J55:J1036 K55:K1036 L55:L1036 M55:M1036 N55:N1036">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"中共党员,中共预备党员,共青团员,民主党派,无党派人士,群众"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J55:J1036 K55:K1036 L55:L1036 M55:M1036 N55:N1036 O55:O1036">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" display="142322gty@163.com"/>
+    <hyperlink ref="M2" r:id="rId1" display="142322gty@163.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/main/resources/template/static/excel/模板-用户.xlsx
+++ b/src/main/resources/template/static/excel/模板-用户.xlsx
@@ -105,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -153,6 +153,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -160,7 +181,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,28 +189,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,72 +256,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,21 +281,21 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -318,25 +318,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,157 +474,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,17 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -549,15 +538,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,15 +557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -597,6 +568,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,7 +611,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,148 +629,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -1257,11 +1257,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"普通用户,管理员,公司用户"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"中共党员,中共预备党员,共青团员,民主党派,无党派人士,群众"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
-      <formula1>"中共党员,中共预备党员,共青团员,民主党派,无党派人士,群众"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J55:J1036 K55:K1036 L55:L1036 M55:M1036 N55:N1036 O55:O1036">
       <formula1>"是,否"</formula1>
